--- a/biology/Histoire de la zoologie et de la botanique/George_Parker_Bidder_III/George_Parker_Bidder_III.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Parker_Bidder_III/George_Parker_Bidder_III.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Parker Bidder III est un zoologiste et biologiste marin britannique, né le 21 mai 1863 à Londres et mort le 31 décembre 1953.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à Brighton, il passe un an à l’University College de Londres. Sur les conseils de Francis Maitland Balfour, il assiste aux conférences de Sir Edwin Ray Lankester, le fondateur de l’Association de biologie marine.
 Bidder part alors comme boursier en mathématiques et en sciences au Trinity College où il obtient un Bachelor of Arts avec mention (tripos) en sciences naturelles en 1884 et en 1886. Il y suit les cours de Walter Frank Raphael Weldon et de Sir Sidney Frederic Harmer. Il commence dès lors à s’intéresser à la biologie marine, semble-t-il à la suite de la lecture de Vingt mille lieues sous les mers de Jules Verne. Après l’obtention de son diplôme il séjourne à la station zoologique de Naples de 1887 à 1891 et en 1893, les trois dernières années à l’invitation d’Anton Dohrn. Il conduit des expériences sur les éponges.
@@ -546,9 +560,11 @@
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 30 novembre 1906, il lance une bouteille à la mer. Celle-ci est retrouvée en avril 2015 sur l'île d'Amrum en Allemagne, ce qui constitue à l'époque le record de longévité pour la découverte d'une bouteille à la mer. La carte présente à l'intérieur de la bouteille promettait une récompense d'un shilling à celui qui la rapporterait au laboratoire de recherche de biologie maritime de Plymouth[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 30 novembre 1906, il lance une bouteille à la mer. Celle-ci est retrouvée en avril 2015 sur l'île d'Amrum en Allemagne, ce qui constitue à l'époque le record de longévité pour la découverte d'une bouteille à la mer. La carte présente à l'intérieur de la bouteille promettait une récompense d'un shilling à celui qui la rapporterait au laboratoire de recherche de biologie maritime de Plymouth.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sir Frederick Stratten Russell (1955) Obituary. George Parker Bidder 1863-1953. Journal of the Marine Biological Association of the United Kingdom, 34 (1). p. 1–13. [PDF] pdf – L’article donne la liste des publications.</t>
         </is>
